--- a/data_output/prism_passive/all_passive_out_norm_elong_msc_GM_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_msc_GM_Fuku_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.90628002700558608</v>
+        <v>0.90628002778264405</v>
       </c>
       <c r="C2">
-        <v>1.7818477962984105</v>
+        <v>1.7818477963020423</v>
       </c>
       <c r="D2">
-        <v>2.198683266436035</v>
+        <v>2.1986832635595634</v>
       </c>
       <c r="E2">
-        <v>4.2528347958644579</v>
+        <v>4.2528347937921414</v>
       </c>
       <c r="F2">
-        <v>1.8128226891450001</v>
+        <v>1.8128226854526512</v>
       </c>
       <c r="G2">
-        <v>1.048461539430223</v>
+        <v>1.0484615384433706</v>
       </c>
       <c r="H2">
-        <v>1.3261489988683139</v>
+        <v>1.3261489975715197</v>
       </c>
       <c r="I2">
-        <v>2.0806568631047493</v>
+        <v>2.0806568624832158</v>
       </c>
       <c r="J2">
-        <v>2.4820652938664653</v>
+        <v>2.4820652916452741</v>
       </c>
       <c r="K2">
-        <v>0.81477014471856513</v>
+        <v>0.81477014240536305</v>
       </c>
       <c r="L2">
-        <v>0.44753450797484046</v>
+        <v>0.44753450869688</v>
       </c>
       <c r="M2">
-        <v>-0.82387203293434397</v>
+        <v>-0.82387203235627282</v>
       </c>
       <c r="N2">
-        <v>2.3519355470360379</v>
+        <v>2.3519355468349943</v>
       </c>
       <c r="O2">
-        <v>1.616697154305438</v>
+        <v>1.6166971503210681</v>
       </c>
       <c r="P2">
-        <v>3.1430011962390187</v>
+        <v>3.1430011964903892</v>
       </c>
       <c r="Q2">
-        <v>0.1758140871900653</v>
+        <v>0.17581408613203536</v>
       </c>
       <c r="R2">
-        <v>-0.796095376227548</v>
+        <v>-0.7960953803542401</v>
       </c>
       <c r="S2">
-        <v>4.2188287530779327</v>
+        <v>4.2188287563790752</v>
       </c>
       <c r="T2">
-        <v>3.4191934038476859</v>
+        <v>3.4191934053751947</v>
       </c>
       <c r="U2">
-        <v>0.3903043863571547</v>
+        <v>0.39030438136607298</v>
       </c>
       <c r="V2">
-        <v>1.1052830103824101</v>
+        <v>1.1052830075891105</v>
       </c>
       <c r="W2">
-        <v>-1.7569390471804502</v>
+        <v>-1.75693904895931</v>
       </c>
       <c r="X2">
-        <v>0.61396784197197485</v>
+        <v>0.61396784163503382</v>
       </c>
       <c r="Y2">
-        <v>3.8595403873045484</v>
+        <v>3.8595403832438375</v>
       </c>
       <c r="Z2">
-        <v>2.5627620270980103</v>
+        <v>2.5627620222372092</v>
       </c>
       <c r="AA2">
-        <v>2.979145346884494</v>
+        <v>2.9791453432528563</v>
       </c>
       <c r="AB2">
-        <v>2.4561407388314653</v>
+        <v>2.456140732323993</v>
       </c>
       <c r="AC2">
-        <v>0.44741273722398694</v>
+        <v>0.44741273417189098</v>
       </c>
       <c r="AD2">
-        <v>4.418050419407396</v>
+        <v>4.4180504115285126</v>
       </c>
       <c r="AE2">
-        <v>1.9479921298257534</v>
+        <v>1.9479921262108661</v>
       </c>
       <c r="AF2">
-        <v>2.6224422777551162</v>
+        <v>2.6224422746154974</v>
       </c>
       <c r="AG2">
-        <v>2.4014466860211336</v>
+        <v>2.401446682552514</v>
       </c>
       <c r="AH2">
-        <v>2.6132874708516405</v>
+        <v>2.613287467561789</v>
       </c>
       <c r="AI2">
-        <v>2.6195859029583115</v>
+        <v>2.6195858972704196</v>
       </c>
       <c r="AJ2">
-        <v>1.7151974938384593</v>
+        <v>1.7151974910409915</v>
       </c>
       <c r="AK2">
-        <v>2.0300890104315723</v>
+        <v>2.0300890074363274</v>
       </c>
       <c r="AL2">
-        <v>-9.8097375323672173E-2</v>
+        <v>-9.809737815573133E-2</v>
       </c>
       <c r="AM2">
-        <v>2.2990046824758785</v>
+        <v>2.2990046799629509</v>
       </c>
       <c r="AN2">
-        <v>2.5732758532115518</v>
+        <v>2.5732758479838149</v>
       </c>
       <c r="AO2">
-        <v>4.5099290912518022</v>
+        <v>4.5099290892274748</v>
       </c>
       <c r="AP2">
-        <v>2.7806467963402013</v>
+        <v>2.7806467916450814</v>
       </c>
       <c r="AQ2">
-        <v>6.8142875816414344E-2</v>
+        <v>6.8142872950942054E-2</v>
       </c>
       <c r="AR2">
-        <v>4.5911076262780526</v>
+        <v>4.591107624285935</v>
       </c>
       <c r="AS2">
-        <v>3.0702383614760755</v>
+        <v>3.0702383573297567</v>
       </c>
       <c r="AT2">
-        <v>2.229054288061787</v>
+        <v>2.229054283778217</v>
       </c>
       <c r="AU2">
-        <v>2.4653599179456562</v>
+        <v>2.4653599123071914</v>
       </c>
       <c r="AV2">
-        <v>0.49365776661559568</v>
+        <v>0.49365776127437794</v>
       </c>
       <c r="AW2">
-        <v>1.1446411993866827</v>
+        <v>1.1446411948077042</v>
       </c>
       <c r="AX2">
-        <v>3.6664931492596096</v>
+        <v>3.666493143495257</v>
       </c>
       <c r="AY2">
-        <v>4.7168508243834593</v>
+        <v>4.7168508197848409</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.0266830465923977</v>
+        <v>1.0266830443966188</v>
       </c>
       <c r="C3">
-        <v>1.2069968465589049</v>
+        <v>1.2069968424421438</v>
       </c>
       <c r="D3">
-        <v>3.59914973863689</v>
+        <v>3.5991497311239899</v>
       </c>
       <c r="E3">
-        <v>3.1241698305247949</v>
+        <v>3.1241698265975697</v>
       </c>
       <c r="F3">
-        <v>1.0924284563126532</v>
+        <v>1.0924284531168245</v>
       </c>
       <c r="G3">
-        <v>2.4516339105904854</v>
+        <v>2.4516339085587204</v>
       </c>
       <c r="H3">
-        <v>6.0284116015032356E-2</v>
+        <v>6.0284114144055559E-2</v>
       </c>
       <c r="I3">
-        <v>0.85769101759712441</v>
+        <v>0.85769101592526575</v>
       </c>
       <c r="J3">
-        <v>3.0924742023674594</v>
+        <v>3.0924742011269779</v>
       </c>
       <c r="K3">
-        <v>5.1765835279924346</v>
+        <v>5.1765835278410988</v>
       </c>
       <c r="L3">
-        <v>2.978360254242931</v>
+        <v>2.9783602519498671</v>
       </c>
       <c r="M3">
-        <v>0.67521727935958575</v>
+        <v>0.67516818196648931</v>
       </c>
       <c r="N3">
-        <v>1.7529298615141087</v>
+        <v>1.7529298586155688</v>
       </c>
       <c r="O3">
-        <v>-2.1674564510157883</v>
+        <v>-2.1674564526097497</v>
       </c>
       <c r="P3">
-        <v>2.8294345906235097</v>
+        <v>2.8294345842926578</v>
       </c>
       <c r="Q3">
-        <v>1.2853951052934793</v>
+        <v>1.2853951042399592</v>
       </c>
       <c r="R3">
-        <v>-0.22812556286605773</v>
+        <v>-0.22812556512210955</v>
       </c>
       <c r="S3">
-        <v>3.3154910170540655</v>
+        <v>3.3154910162476794</v>
       </c>
       <c r="T3">
-        <v>3.2496928008379089</v>
+        <v>3.249692797866377</v>
       </c>
       <c r="U3">
-        <v>2.4888823773415316</v>
+        <v>2.4888823743982025</v>
       </c>
       <c r="V3">
-        <v>2.1621566866390838</v>
+        <v>2.1621566846926652</v>
       </c>
       <c r="W3">
-        <v>-0.18556788411466893</v>
+        <v>-0.18556788625447718</v>
       </c>
       <c r="X3">
-        <v>-0.36675176859001496</v>
+        <v>-0.3667517710962685</v>
       </c>
       <c r="Y3">
-        <v>4.7231466434087945</v>
+        <v>4.723146637395871</v>
       </c>
       <c r="Z3">
-        <v>2.9623785458165726</v>
+        <v>2.9623785404341487</v>
       </c>
       <c r="AA3">
-        <v>3.1268209628042194</v>
+        <v>3.1268209588519227</v>
       </c>
       <c r="AB3">
-        <v>2.8585241482052148</v>
+        <v>2.8585241426675663</v>
       </c>
       <c r="AC3">
-        <v>4.491626734953317</v>
+        <v>4.4916267319542484</v>
       </c>
       <c r="AD3">
-        <v>4.7487798070227498</v>
+        <v>4.7487798027620531</v>
       </c>
       <c r="AE3">
-        <v>3.2373737662648381</v>
+        <v>3.2373737644030043</v>
       </c>
       <c r="AF3">
-        <v>2.4832522398404167</v>
+        <v>2.4832522357794931</v>
       </c>
       <c r="AG3">
-        <v>1.3214126334197174</v>
+        <v>1.3214126310253536</v>
       </c>
       <c r="AH3">
-        <v>1.0247715650190665</v>
+        <v>1.0247715621347351</v>
       </c>
       <c r="AI3">
-        <v>8.1673081000811845</v>
+        <v>8.1673080943168923</v>
       </c>
       <c r="AJ3">
-        <v>3.6855396159179001</v>
+        <v>3.6855396141910766</v>
       </c>
       <c r="AK3">
-        <v>3.1319657088797448</v>
+        <v>3.1319657038014181</v>
       </c>
       <c r="AL3">
-        <v>1.9873348874167676</v>
+        <v>1.9873348823688679</v>
       </c>
       <c r="AM3">
-        <v>1.6952949556464794</v>
+        <v>1.6952949500695462</v>
       </c>
       <c r="AN3">
-        <v>-1.7998894660046265</v>
+        <v>-1.7998894685642419</v>
       </c>
       <c r="AO3">
-        <v>4.0390574377715804</v>
+        <v>4.0390574280659841</v>
       </c>
       <c r="AP3">
-        <v>0.94701246478388967</v>
+        <v>0.94701246120264959</v>
       </c>
       <c r="AQ3">
-        <v>1.6778063538712553</v>
+        <v>1.6778063485915249</v>
       </c>
       <c r="AR3">
-        <v>5.401403999184641</v>
+        <v>5.4014039963599787</v>
       </c>
       <c r="AS3">
-        <v>2.7440727728734968</v>
+        <v>2.7440727700173735</v>
       </c>
       <c r="AT3">
-        <v>3.1776711023904123</v>
+        <v>3.1776710956824203</v>
       </c>
       <c r="AU3">
-        <v>1.6673300343490669</v>
+        <v>1.6673300341635184</v>
       </c>
       <c r="AV3">
-        <v>0.92084561022130906</v>
+        <v>0.92084560600591248</v>
       </c>
       <c r="AW3">
-        <v>1.1059357646007335</v>
+        <v>1.1059357604020306</v>
       </c>
       <c r="AX3">
-        <v>1.7770397679124861</v>
+        <v>1.7770397641324192</v>
       </c>
       <c r="AY3">
-        <v>5.296411759793588</v>
+        <v>5.2964117530111068</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_norm_elong_msc_GM_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_msc_GM_Fuku_common_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>0.90628002778264405</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.7818477963020423</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>2.1986832635595634</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>4.2528347937921414</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.8128226854526512</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.0484615384433706</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.3261489975715197</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>2.0806568624832158</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2.4820652916452741</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.81477014240536305</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.44753450869688</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-0.82387203235627282</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>2.3519355468349943</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.6166971503210681</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>3.1430011964903892</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.17581408613203536</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-0.7960953803542401</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>4.2188287563790752</v>
+        <v>2.905703158115009</v>
       </c>
       <c r="T2">
         <v>3.4191934053751947</v>
@@ -588,55 +477,55 @@
         <v>2.5627620222372092</v>
       </c>
       <c r="AA2">
-        <v>2.9791453432528563</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>2.456140732323993</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.44741273417189098</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>4.4180504115285126</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>1.9479921262108661</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>2.6224422746154974</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>2.401446682552514</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>2.613287467561789</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>2.6195858972704196</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1.7151974910409915</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>2.0300890074363274</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-9.809737815573133E-2</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>2.2990046799629509</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>2.5732758479838149</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>4.5099290892274748</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.7806467916450814</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>6.8142872950942054E-2</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>4.591107624285935</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>1.0266830443966188</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.2069968424421438</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>3.5991497311239899</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>3.1241698265975697</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.0924284531168245</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>2.4516339085587204</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>6.0284114144055559E-2</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.85769101592526575</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>3.0924742011269779</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>5.1765835278410988</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>2.9783602519498671</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.67516818196648931</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.7529298586155688</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>-2.1674564526097497</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>2.8294345842926578</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.2853951042399592</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>-0.22812556512210955</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>3.3154910162476794</v>
@@ -743,55 +629,55 @@
         <v>2.9623785404341487</v>
       </c>
       <c r="AA3">
-        <v>3.1268209588519227</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>2.8585241426675663</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>4.4916267319542484</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>4.7487798027620531</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>3.2373737644030043</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.4832522357794931</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>1.3214126310253536</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>1.0247715621347351</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>8.1673080943168923</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>3.6855396141910766</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>3.1319657038014181</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>1.9873348823688679</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>1.6952949500695462</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-1.7998894685642419</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>4.0390574280659841</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.94701246120264959</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>1.6778063485915249</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>5.4014039963599787</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_msc_GM_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_msc_GM_Fuku_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,8 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0.90628002700558608</v>
-      </c>
       <c r="C2">
-        <v>1.1289350443644173</v>
-      </c>
-      <c r="D2">
-        <v>2.198683266436035</v>
-      </c>
-      <c r="E2">
-        <v>4.2528347958644579</v>
+        <v>-0.7960953803542401</v>
       </c>
       <c r="F2">
         <v>1.8128226891450001</v>
@@ -673,16 +659,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.0266830465923977</v>
+        <v>-0.8956985217115051</v>
       </c>
       <c r="C3">
-        <v>1.2069968465589049</v>
+        <v>-0.22812556512210955</v>
       </c>
       <c r="D3">
-        <v>3.59914973863689</v>
+        <v>-1.6748434028007984</v>
       </c>
       <c r="E3">
-        <v>3.1241698305247949</v>
+        <v>2.1048551030717273</v>
       </c>
       <c r="F3">
         <v>1.0924284563126532</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_msc_GM_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_msc_GM_Fuku_common_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.90628002700558608</v>
-      </c>
-      <c r="C2">
-        <v>1.1289350443644173</v>
+        <v>2.0852145447608303</v>
       </c>
       <c r="D2">
-        <v>2.198683266436035</v>
-      </c>
-      <c r="E2">
-        <v>4.2528347958644579</v>
+        <v>2.2990046799629509</v>
       </c>
       <c r="F2">
         <v>1.8128226891450001</v>
@@ -661,16 +650,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.0266830465923977</v>
+        <v>1.7529298586155688</v>
       </c>
       <c r="C3">
-        <v>1.2069968465589049</v>
+        <v>-0.8956985217115051</v>
       </c>
       <c r="D3">
-        <v>3.59914973863689</v>
+        <v>1.6952949500695462</v>
       </c>
       <c r="E3">
-        <v>4.6937161727198449</v>
+        <v>-1.6748434028007984</v>
       </c>
       <c r="F3">
         <v>1.0924284563126532</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_msc_GM_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_msc_GM_Fuku_common_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,136 +513,142 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>0.90628002778264405</v>
+      </c>
+      <c r="C2">
+        <v>1.1289350428523022</v>
+      </c>
+      <c r="D2">
+        <v>2.1986832635595634</v>
+      </c>
+      <c r="E2">
+        <v>4.2528347937921414</v>
+      </c>
+      <c r="F2">
+        <v>1.8128226854526512</v>
+      </c>
+      <c r="G2">
+        <v>1.7154900879702819</v>
+      </c>
+      <c r="H2">
+        <v>1.3261489975715197</v>
+      </c>
+      <c r="I2">
+        <v>2.7823023464312322</v>
+      </c>
+      <c r="J2">
+        <v>2.4820652916452741</v>
+      </c>
+      <c r="K2">
+        <v>0.81477014240536305</v>
+      </c>
+      <c r="L2">
+        <v>0.31286313782395991</v>
+      </c>
+      <c r="M2">
+        <v>0.52539728134808639</v>
+      </c>
+      <c r="N2">
         <v>2.0852145447608303</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>3.3413269761230624</v>
+      </c>
+      <c r="Q2">
+        <v>0.17581408613203536</v>
+      </c>
+      <c r="R2">
+        <v>-0.7960953803542401</v>
+      </c>
+      <c r="T2">
+        <v>2.7983937129242307</v>
+      </c>
+      <c r="U2">
+        <v>0.39030438136607298</v>
+      </c>
+      <c r="V2">
+        <v>1.6696386822628835</v>
+      </c>
+      <c r="W2">
+        <v>-1.75693904895931</v>
+      </c>
+      <c r="X2">
+        <v>0.61396784163503382</v>
+      </c>
+      <c r="Y2">
+        <v>3.8595403832438375</v>
+      </c>
+      <c r="Z2">
+        <v>2.5627620222372092</v>
+      </c>
+      <c r="AA2">
+        <v>2.9791453432528563</v>
+      </c>
+      <c r="AB2">
+        <v>2.456140732323993</v>
+      </c>
+      <c r="AC2">
+        <v>0.44741273417189098</v>
+      </c>
+      <c r="AD2">
+        <v>4.4180504115285126</v>
+      </c>
+      <c r="AE2">
+        <v>1.9479921262108661</v>
+      </c>
+      <c r="AF2">
+        <v>2.6224422746154974</v>
+      </c>
+      <c r="AG2">
+        <v>2.401446682552514</v>
+      </c>
+      <c r="AH2">
+        <v>2.613287467561789</v>
+      </c>
+      <c r="AI2">
+        <v>2.6195858972704196</v>
+      </c>
+      <c r="AJ2">
+        <v>1.7151974910409915</v>
+      </c>
+      <c r="AK2">
+        <v>2.0300890074363274</v>
+      </c>
+      <c r="AL2">
+        <v>-9.809737815573133E-2</v>
+      </c>
+      <c r="AM2">
         <v>2.2990046799629509</v>
       </c>
-      <c r="F2">
-        <v>1.8128226891450001</v>
-      </c>
-      <c r="G2">
-        <v>1.7154900879198534</v>
-      </c>
-      <c r="H2">
-        <v>1.3261489988683139</v>
-      </c>
-      <c r="I2">
-        <v>2.7823023495285293</v>
-      </c>
-      <c r="J2">
-        <v>2.4820652938664653</v>
-      </c>
-      <c r="K2">
-        <v>0.81477014471856513</v>
-      </c>
-      <c r="L2">
-        <v>0.31286313963847368</v>
-      </c>
-      <c r="M2">
-        <v>0.52539727933200753</v>
-      </c>
-      <c r="N2">
-        <v>2.0852145461229039</v>
-      </c>
-      <c r="P2">
-        <v>3.3413269755770152</v>
-      </c>
-      <c r="Q2">
-        <v>0.1758140871900653</v>
-      </c>
-      <c r="R2">
-        <v>-0.796095376227548</v>
-      </c>
-      <c r="T2">
-        <v>2.798393714283522</v>
-      </c>
-      <c r="U2">
-        <v>0.3903043863571547</v>
-      </c>
-      <c r="V2">
-        <v>1.6696386866639996</v>
-      </c>
-      <c r="W2">
-        <v>-1.7569390471804502</v>
-      </c>
-      <c r="X2">
-        <v>0.61396784197197485</v>
-      </c>
-      <c r="Y2">
-        <v>3.8595403873045484</v>
-      </c>
-      <c r="Z2">
-        <v>2.5627620270980103</v>
-      </c>
-      <c r="AA2">
-        <v>2.979145346884494</v>
-      </c>
-      <c r="AB2">
-        <v>2.4561407388314653</v>
-      </c>
-      <c r="AC2">
-        <v>0.44741273722398694</v>
-      </c>
-      <c r="AD2">
-        <v>4.418050419407396</v>
-      </c>
-      <c r="AE2">
-        <v>1.9479921298257534</v>
-      </c>
-      <c r="AF2">
-        <v>2.6224422777551162</v>
-      </c>
-      <c r="AG2">
-        <v>2.4014466860211336</v>
-      </c>
-      <c r="AH2">
-        <v>2.6132874708516405</v>
-      </c>
-      <c r="AI2">
-        <v>2.6195859029583115</v>
-      </c>
-      <c r="AJ2">
-        <v>1.7151974938384593</v>
-      </c>
-      <c r="AK2">
-        <v>2.0300890104315723</v>
-      </c>
-      <c r="AL2">
-        <v>-9.8097375323672173E-2</v>
-      </c>
-      <c r="AM2">
-        <v>2.2990046824758785</v>
-      </c>
       <c r="AO2">
-        <v>4.5099290912518022</v>
+        <v>4.5099290892274748</v>
       </c>
       <c r="AP2">
-        <v>3.2166859589440837</v>
+        <v>3.2166859553388263</v>
       </c>
       <c r="AR2">
-        <v>4.5911076262780526</v>
+        <v>4.591107624285935</v>
       </c>
       <c r="AS2">
-        <v>3.0702383614760755</v>
+        <v>3.0702383573297567</v>
       </c>
       <c r="AT2">
-        <v>2.229054288061787</v>
+        <v>2.229054283778217</v>
       </c>
       <c r="AU2">
-        <v>1.3894042728924436</v>
+        <v>1.3894042702148739</v>
       </c>
       <c r="AV2">
-        <v>0.49365776661559568</v>
+        <v>0.49365776127437794</v>
       </c>
       <c r="AW2">
-        <v>1.1446411993866827</v>
+        <v>1.1446411948077042</v>
       </c>
       <c r="AX2">
-        <v>3.6664931492596096</v>
+        <v>3.666493143495257</v>
       </c>
       <c r="AY2">
-        <v>4.7168508243834593</v>
+        <v>4.7168508197848409</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -650,154 +656,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>1.0266830443966188</v>
+      </c>
+      <c r="C3">
+        <v>1.2069968424421438</v>
+      </c>
+      <c r="D3">
+        <v>3.5991497311239899</v>
+      </c>
+      <c r="E3">
+        <v>4.6937161681654018</v>
+      </c>
+      <c r="F3">
+        <v>1.0924284531168245</v>
+      </c>
+      <c r="G3">
+        <v>2.4516339085587204</v>
+      </c>
+      <c r="H3">
+        <v>6.0284114144055559E-2</v>
+      </c>
+      <c r="I3">
+        <v>0.85769101592526575</v>
+      </c>
+      <c r="J3">
+        <v>3.0924742011269779</v>
+      </c>
+      <c r="K3">
+        <v>4.3582965499904072</v>
+      </c>
+      <c r="L3">
+        <v>2.9783602519498671</v>
+      </c>
+      <c r="M3">
+        <v>-0.37056720662998072</v>
+      </c>
+      <c r="N3">
         <v>1.7529298586155688</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>-0.8956985217115051</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>2.8294345842926578</v>
+      </c>
+      <c r="Q3">
+        <v>1.2853951042399592</v>
+      </c>
+      <c r="R3">
+        <v>-0.22812556512210955</v>
+      </c>
+      <c r="S3">
+        <v>3.3154910162476794</v>
+      </c>
+      <c r="T3">
+        <v>3.249692797866377</v>
+      </c>
+      <c r="U3">
+        <v>2.4888823743982025</v>
+      </c>
+      <c r="V3">
+        <v>2.5050330229631679</v>
+      </c>
+      <c r="W3">
+        <v>-0.18556788625447718</v>
+      </c>
+      <c r="X3">
+        <v>-0.3667517710962685</v>
+      </c>
+      <c r="Y3">
+        <v>4.723146637395871</v>
+      </c>
+      <c r="Z3">
+        <v>2.9623785404341487</v>
+      </c>
+      <c r="AA3">
+        <v>3.1268209588519227</v>
+      </c>
+      <c r="AB3">
+        <v>2.8585241426675663</v>
+      </c>
+      <c r="AC3">
+        <v>4.4916267319542484</v>
+      </c>
+      <c r="AD3">
+        <v>4.7487798027620531</v>
+      </c>
+      <c r="AE3">
+        <v>3.2373737644030043</v>
+      </c>
+      <c r="AF3">
+        <v>2.4832522357794931</v>
+      </c>
+      <c r="AG3">
+        <v>1.3214126310253536</v>
+      </c>
+      <c r="AH3">
+        <v>1.0247715621347351</v>
+      </c>
+      <c r="AI3">
+        <v>2.9358653688696705</v>
+      </c>
+      <c r="AJ3">
+        <v>3.6855396141910766</v>
+      </c>
+      <c r="AK3">
+        <v>3.1319657038014181</v>
+      </c>
+      <c r="AL3">
+        <v>1.9873348823688679</v>
+      </c>
+      <c r="AM3">
         <v>1.6952949500695462</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>-1.6748434028007984</v>
       </c>
-      <c r="F3">
-        <v>1.0924284563126532</v>
-      </c>
-      <c r="G3">
-        <v>2.4516339105904854</v>
-      </c>
-      <c r="H3">
-        <v>6.0284116015032356E-2</v>
-      </c>
-      <c r="I3">
-        <v>0.85769101759712441</v>
-      </c>
-      <c r="J3">
-        <v>3.0924742023674594</v>
-      </c>
-      <c r="K3">
-        <v>4.3582965520575927</v>
-      </c>
-      <c r="L3">
-        <v>2.978360254242931</v>
-      </c>
-      <c r="M3">
-        <v>-0.37053433227069138</v>
-      </c>
-      <c r="N3">
-        <v>1.7529298615141087</v>
-      </c>
-      <c r="O3">
-        <v>-0.89569851903857511</v>
-      </c>
-      <c r="P3">
-        <v>2.8294345906235097</v>
-      </c>
-      <c r="Q3">
-        <v>1.2853951052934793</v>
-      </c>
-      <c r="R3">
-        <v>-0.22812556286605773</v>
-      </c>
-      <c r="S3">
-        <v>3.3154910170540655</v>
-      </c>
-      <c r="T3">
-        <v>3.2496928008379089</v>
-      </c>
-      <c r="U3">
-        <v>2.4888823773415316</v>
-      </c>
-      <c r="V3">
-        <v>2.5050330272424004</v>
-      </c>
-      <c r="W3">
-        <v>-0.18556788411466893</v>
-      </c>
-      <c r="X3">
-        <v>-0.36675176859001496</v>
-      </c>
-      <c r="Y3">
-        <v>4.7231466434087945</v>
-      </c>
-      <c r="Z3">
-        <v>2.9623785458165726</v>
-      </c>
-      <c r="AA3">
-        <v>3.1268209628042194</v>
-      </c>
-      <c r="AB3">
-        <v>2.8585241482052148</v>
-      </c>
-      <c r="AC3">
-        <v>4.491626734953317</v>
-      </c>
-      <c r="AD3">
-        <v>4.7487798070227498</v>
-      </c>
-      <c r="AE3">
-        <v>3.2373737662648381</v>
-      </c>
-      <c r="AF3">
-        <v>2.4832522398404167</v>
-      </c>
-      <c r="AG3">
-        <v>1.3214126334197174</v>
-      </c>
-      <c r="AH3">
-        <v>1.0247715650190665</v>
-      </c>
-      <c r="AI3">
-        <v>2.9358653749605583</v>
-      </c>
-      <c r="AJ3">
-        <v>3.6855396159179001</v>
-      </c>
-      <c r="AK3">
-        <v>3.1319657088797448</v>
-      </c>
-      <c r="AL3">
-        <v>1.9873348874167676</v>
-      </c>
-      <c r="AM3">
-        <v>1.6952949556464794</v>
-      </c>
-      <c r="AN3">
-        <v>-1.6748433994312626</v>
-      </c>
       <c r="AO3">
-        <v>4.0390574377715804</v>
+        <v>4.0390574280659841</v>
       </c>
       <c r="AP3">
-        <v>0.94701246478388967</v>
+        <v>0.94701246120264959</v>
       </c>
       <c r="AQ3">
-        <v>2.1048551040636911</v>
+        <v>2.1048551030717273</v>
       </c>
       <c r="AR3">
-        <v>5.401403999184641</v>
+        <v>5.4014039963599787</v>
       </c>
       <c r="AS3">
-        <v>2.7440727728734968</v>
+        <v>2.7440727700173735</v>
       </c>
       <c r="AT3">
-        <v>3.1776711023904123</v>
+        <v>3.1776710956824203</v>
       </c>
       <c r="AU3">
-        <v>1.7864942478227384</v>
+        <v>1.7864942513211051</v>
       </c>
       <c r="AV3">
-        <v>0.92084561022130906</v>
+        <v>0.92084560600591248</v>
       </c>
       <c r="AW3">
-        <v>1.1059357646007335</v>
+        <v>1.1059357604020306</v>
       </c>
       <c r="AX3">
-        <v>1.7770397679124861</v>
+        <v>1.7770397641324192</v>
       </c>
       <c r="AY3">
-        <v>5.296411759793588</v>
+        <v>5.2964117530111068</v>
       </c>
     </row>
   </sheetData>
